--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Modification produit.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Modification produit.xlsx
@@ -105,9 +105,6 @@
     <t>http://</t>
   </si>
   <si>
-    <t>Modification d'un produit</t>
-  </si>
-  <si>
     <t>Requete</t>
   </si>
   <si>
@@ -115,13 +112,16 @@
   </si>
   <si>
     <t>Resultat</t>
+  </si>
+  <si>
+    <t>Modification d'un produit (description de nouveauProduit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -598,13 +613,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -930,35 +950,39 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1030,7 +1054,7 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1071,7 +1095,7 @@
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1112,7 +1136,7 @@
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1127,5 +1151,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>